--- a/src/test/resources/fee_scenarios.xlsx
+++ b/src/test/resources/fee_scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t xml:space="preserve"> code4   </t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -174,6 +183,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,8 +507,8 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>17</v>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -551,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -591,8 +604,8 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>17</v>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -608,8 +621,8 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>18</v>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -625,8 +638,8 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>19</v>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>23</v>

--- a/src/test/resources/fee_scenarios.xlsx
+++ b/src/test/resources/fee_scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,8 +551,8 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>17</v>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
